--- a/Melanoma_markers.xlsx
+++ b/Melanoma_markers.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="22260" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="603">
   <si>
     <t>Upregulated</t>
   </si>
@@ -1825,12 +1825,15 @@
   </si>
   <si>
     <t>'RPL12'</t>
+  </si>
+  <si>
+    <t>Correlation Score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2134,2828 +2137,4638 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C501"/>
+    <sheetView tabSelected="1" topLeftCell="A484" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>602</v>
+      </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2">
+        <v>0.71602709316244895</v>
+      </c>
       <c r="C2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D2">
+        <v>0.49086408340059601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3">
+        <v>0.69412550706217802</v>
+      </c>
       <c r="C3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D3">
+        <v>0.48312172544078702</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4">
+        <v>0.681696180681446</v>
+      </c>
       <c r="C4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D4">
+        <v>0.45909308163850698</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="B5">
+        <v>0.62617636398366205</v>
+      </c>
       <c r="C5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D5">
+        <v>0.44753928135013799</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>6</v>
       </c>
+      <c r="B6">
+        <v>0.62242115157943401</v>
+      </c>
       <c r="C6" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6">
+        <v>0.44147973044832001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>7</v>
       </c>
+      <c r="B7">
+        <v>0.61238584051993805</v>
+      </c>
       <c r="C7" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7">
+        <v>0.42522381585793101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>8</v>
       </c>
+      <c r="B8">
+        <v>0.61139281002828305</v>
+      </c>
       <c r="C8" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D8">
+        <v>0.41385790520797799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>9</v>
       </c>
+      <c r="B9">
+        <v>0.60725659647299801</v>
+      </c>
       <c r="C9" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9">
+        <v>0.41130491010937897</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>10</v>
       </c>
+      <c r="B10">
+        <v>0.59838282835455503</v>
+      </c>
       <c r="C10" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D10">
+        <v>0.40227282259111002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>11</v>
       </c>
+      <c r="B11">
+        <v>0.59741251362724201</v>
+      </c>
       <c r="C11" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D11">
+        <v>0.39401747969200002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>12</v>
       </c>
+      <c r="B12">
+        <v>0.594722147771789</v>
+      </c>
       <c r="C12" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D12">
+        <v>0.39245401752995401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>13</v>
       </c>
+      <c r="B13">
+        <v>0.58670594103086604</v>
+      </c>
       <c r="C13" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D13">
+        <v>0.39026596662489799</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>14</v>
       </c>
+      <c r="B14">
+        <v>0.58619504117249099</v>
+      </c>
       <c r="C14" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D14">
+        <v>0.39005292760862598</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>15</v>
       </c>
+      <c r="B15">
+        <v>0.57942515028159602</v>
+      </c>
       <c r="C15" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D15">
+        <v>0.37911767483172698</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>16</v>
       </c>
+      <c r="B16">
+        <v>0.57720886823684503</v>
+      </c>
       <c r="C16" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D16">
+        <v>0.37614562126921502</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>17</v>
       </c>
+      <c r="B17">
+        <v>0.56218988357501198</v>
+      </c>
       <c r="C17" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D17">
+        <v>0.37560335347784402</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>18</v>
       </c>
+      <c r="B18">
+        <v>0.56145482834516303</v>
+      </c>
       <c r="C18" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D18">
+        <v>0.37527889409606802</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>19</v>
       </c>
+      <c r="B19">
+        <v>0.55871695199470495</v>
+      </c>
       <c r="C19" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D19">
+        <v>0.37445623489428398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>20</v>
       </c>
+      <c r="B20">
+        <v>0.53161397560160595</v>
+      </c>
       <c r="C20" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D20">
+        <v>0.37435755736939702</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>21</v>
       </c>
+      <c r="B21">
+        <v>0.52669252423828605</v>
+      </c>
       <c r="C21" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D21">
+        <v>0.37392395225585401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>22</v>
       </c>
+      <c r="B22">
+        <v>0.526588196816695</v>
+      </c>
       <c r="C22" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D22">
+        <v>0.37209384431953002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>23</v>
       </c>
+      <c r="B23">
+        <v>0.525594346967726</v>
+      </c>
       <c r="C23" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D23">
+        <v>0.37175181767235499</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>24</v>
       </c>
+      <c r="B24">
+        <v>0.52509726000616097</v>
+      </c>
       <c r="C24" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D24">
+        <v>0.37119428170775098</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>25</v>
       </c>
+      <c r="B25">
+        <v>0.52198362272269305</v>
+      </c>
       <c r="C25" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D25">
+        <v>0.36841413508033499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>26</v>
       </c>
+      <c r="B26">
+        <v>0.521348853159325</v>
+      </c>
       <c r="C26" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D26">
+        <v>0.36072802538867899</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>27</v>
       </c>
+      <c r="B27">
+        <v>0.52090452914002405</v>
+      </c>
       <c r="C27" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D27">
+        <v>0.35618304425276098</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>28</v>
       </c>
+      <c r="B28">
+        <v>0.518266388141434</v>
+      </c>
       <c r="C28" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D28">
+        <v>0.35561921635773702</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>29</v>
       </c>
+      <c r="B29">
+        <v>0.51398242122691096</v>
+      </c>
       <c r="C29" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D29">
+        <v>0.35258250082808601</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>30</v>
       </c>
+      <c r="B30">
+        <v>0.51047097985284096</v>
+      </c>
       <c r="C30" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D30">
+        <v>0.34936948283994601</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>31</v>
       </c>
+      <c r="B31">
+        <v>0.50879244690501901</v>
+      </c>
       <c r="C31" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D31">
+        <v>0.34832773116113602</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>32</v>
       </c>
+      <c r="B32">
+        <v>0.50492061060488203</v>
+      </c>
       <c r="C32" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D32">
+        <v>0.34714942808278598</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>33</v>
       </c>
+      <c r="B33">
+        <v>0.50367292508292605</v>
+      </c>
       <c r="C33" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D33">
+        <v>0.345494112297066</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>34</v>
       </c>
+      <c r="B34">
+        <v>0.50352098321801497</v>
+      </c>
       <c r="C34" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D34">
+        <v>0.34535129954013899</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>35</v>
       </c>
+      <c r="B35">
+        <v>0.50278698581514603</v>
+      </c>
       <c r="C35" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D35">
+        <v>0.345110555240358</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>36</v>
       </c>
+      <c r="B36">
+        <v>0.50241113927764003</v>
+      </c>
       <c r="C36" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D36">
+        <v>0.34469680425516502</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>37</v>
       </c>
+      <c r="B37">
+        <v>0.50121773923504698</v>
+      </c>
       <c r="C37" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D37">
+        <v>0.34452200598995403</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>38</v>
       </c>
+      <c r="B38">
+        <v>0.499731932579636</v>
+      </c>
       <c r="C38" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D38">
+        <v>0.34418764094512699</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>39</v>
       </c>
+      <c r="B39">
+        <v>0.49817451164913001</v>
+      </c>
       <c r="C39" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D39">
+        <v>0.34337451441537797</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
+      <c r="B40">
+        <v>0.49780073796333701</v>
+      </c>
       <c r="C40" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D40">
+        <v>0.34174115006814798</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
+      <c r="B41">
+        <v>0.486795271156306</v>
+      </c>
       <c r="C41" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D41">
+        <v>0.33887007312268702</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
+      <c r="B42">
+        <v>0.485860849171036</v>
+      </c>
       <c r="C42" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D42">
+        <v>0.338633132108349</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
+      <c r="B43">
+        <v>0.48371251263728698</v>
+      </c>
       <c r="C43" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D43">
+        <v>0.33846219827465002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
+      <c r="B44">
+        <v>0.48217397361264702</v>
+      </c>
       <c r="C44" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D44">
+        <v>0.33843659030128098</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
+      <c r="B45">
+        <v>0.48093490357170299</v>
+      </c>
       <c r="C45" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D45">
+        <v>0.33758249590582701</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
+      <c r="B46">
+        <v>0.48075796519410502</v>
+      </c>
       <c r="C46" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D46">
+        <v>0.33687125095494103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
+      <c r="B47">
+        <v>0.47810103400875198</v>
+      </c>
       <c r="C47" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D47">
+        <v>0.33682081767787603</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
+      <c r="B48">
+        <v>0.47804411313384998</v>
+      </c>
       <c r="C48" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D48">
+        <v>0.33504944054007402</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
+      <c r="B49">
+        <v>0.47592778045220502</v>
+      </c>
       <c r="C49" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D49">
+        <v>0.334962894395121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
+      <c r="B50">
+        <v>0.47301972847929402</v>
+      </c>
       <c r="C50" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D50">
+        <v>0.32974278729081202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
+      <c r="B51">
+        <v>0.47190850875238399</v>
+      </c>
       <c r="C51" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D51">
+        <v>0.32970540869931098</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
+      <c r="B52">
+        <v>0.470899635314454</v>
+      </c>
       <c r="C52" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D52">
+        <v>0.328138418409129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
+      <c r="B53">
+        <v>0.47034655689822302</v>
+      </c>
       <c r="C53" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D53">
+        <v>0.32538693705849397</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
+      <c r="B54">
+        <v>0.46858901711565898</v>
+      </c>
       <c r="C54" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D54">
+        <v>0.32491041351966998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
+      <c r="B55">
+        <v>0.46785382124985198</v>
+      </c>
       <c r="C55" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D55">
+        <v>0.32367255417087598</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
+      <c r="B56">
+        <v>0.46661170002010399</v>
+      </c>
       <c r="C56" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D56">
+        <v>0.323489733541516</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
+      <c r="B57">
+        <v>0.46647360773964403</v>
+      </c>
       <c r="C57" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D57">
+        <v>0.32327950724438098</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
+      <c r="B58">
+        <v>0.465477263131092</v>
+      </c>
       <c r="C58" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D58">
+        <v>0.321821124600566</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
+      <c r="B59">
+        <v>0.46435019434329999</v>
+      </c>
       <c r="C59" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D59">
+        <v>0.32164624073086001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
+      <c r="B60">
+        <v>0.46291215499638</v>
+      </c>
       <c r="C60" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D60">
+        <v>0.32146076024753201</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
+      <c r="B61">
+        <v>0.46246355686691099</v>
+      </c>
       <c r="C61" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D61">
+        <v>0.31855270827462201</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
+      <c r="B62">
+        <v>0.45730133674538198</v>
+      </c>
       <c r="C62" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D62">
+        <v>0.317574267234843</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
+      <c r="B63">
+        <v>0.45642296124623999</v>
+      </c>
       <c r="C63" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D63">
+        <v>0.31645315407409602</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
+      <c r="B64">
+        <v>0.456264299428432</v>
+      </c>
       <c r="C64" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D64">
+        <v>0.31609810942899702</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
+      <c r="B65">
+        <v>0.45516578585449702</v>
+      </c>
       <c r="C65" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D65">
+        <v>0.31515559781890301</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
+      <c r="B66">
+        <v>0.45489474367791399</v>
+      </c>
       <c r="C66" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D66">
+        <v>0.314349417482504</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
+      <c r="B67">
+        <v>0.45248086199911502</v>
+      </c>
       <c r="C67" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D67">
+        <v>0.31312250327992103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
+      <c r="B68">
+        <v>0.45218185161093</v>
+      </c>
       <c r="C68" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D68">
+        <v>0.312136547388359</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
+      <c r="B69">
+        <v>0.45206701318021197</v>
+      </c>
       <c r="C69" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D69">
+        <v>0.311208557969466</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
+      <c r="B70">
+        <v>0.45136967895984498</v>
+      </c>
       <c r="C70" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D70">
+        <v>0.31006585413203103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
+      <c r="B71">
+        <v>0.450640249168271</v>
+      </c>
       <c r="C71" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D71">
+        <v>0.30985878908662301</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>72</v>
       </c>
+      <c r="B72">
+        <v>0.449385758088923</v>
+      </c>
       <c r="C72" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D72">
+        <v>0.30940663225598303</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>73</v>
       </c>
+      <c r="B73">
+        <v>0.44830179116461699</v>
+      </c>
       <c r="C73" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D73">
+        <v>0.30935850418569</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
+      <c r="B74">
+        <v>0.447841324583307</v>
+      </c>
       <c r="C74" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D74">
+        <v>0.308543567732322</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>75</v>
       </c>
+      <c r="B75">
+        <v>0.446889512656236</v>
+      </c>
       <c r="C75" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D75">
+        <v>0.306516422705778</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>76</v>
       </c>
+      <c r="B76">
+        <v>0.44598096768703599</v>
+      </c>
       <c r="C76" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D76">
+        <v>0.30487078022804998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
+      <c r="B77">
+        <v>0.445632049877973</v>
+      </c>
       <c r="C77" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D77">
+        <v>0.30313163929741099</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
+      <c r="B78">
+        <v>0.44518201481589997</v>
+      </c>
       <c r="C78" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D78">
+        <v>0.30216385601732298</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>79</v>
       </c>
+      <c r="B79">
+        <v>0.44456416436960799</v>
+      </c>
       <c r="C79" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D79">
+        <v>0.30209419230180401</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>80</v>
       </c>
+      <c r="B80">
+        <v>0.44186614914102001</v>
+      </c>
       <c r="C80" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D80">
+        <v>0.30208196920276797</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
+      <c r="B81">
+        <v>0.44168393385773602</v>
+      </c>
       <c r="C81" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D81">
+        <v>0.301538759761947</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
+      <c r="B82">
+        <v>0.44070844617305199</v>
+      </c>
       <c r="C82" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D82">
+        <v>0.30000914806326601</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>83</v>
       </c>
+      <c r="B83">
+        <v>0.440169088934529</v>
+      </c>
       <c r="C83" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D83">
+        <v>0.299761922280253</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>84</v>
       </c>
+      <c r="B84">
+        <v>0.43961152851149798</v>
+      </c>
       <c r="C84" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D84">
+        <v>0.299488470948583</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>85</v>
       </c>
+      <c r="B85">
+        <v>0.43902755910160401</v>
+      </c>
       <c r="C85" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D85">
+        <v>0.298786477397818</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>86</v>
       </c>
+      <c r="B86">
+        <v>0.43856989301021698</v>
+      </c>
       <c r="C86" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D86">
+        <v>0.298573597361322</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>87</v>
       </c>
+      <c r="B87">
+        <v>0.43834397663197799</v>
+      </c>
       <c r="C87" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D87">
+        <v>0.29754951078162001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>88</v>
       </c>
+      <c r="B88">
+        <v>0.43806291872942199</v>
+      </c>
       <c r="C88" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D88">
+        <v>0.29630649681927601</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>89</v>
       </c>
+      <c r="B89">
+        <v>0.43780032693946602</v>
+      </c>
       <c r="C89" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D89">
+        <v>0.29529040203069001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>90</v>
       </c>
+      <c r="B90">
+        <v>0.43721904795657401</v>
+      </c>
       <c r="C90" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D90">
+        <v>0.29490896062794297</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>91</v>
       </c>
+      <c r="B91">
+        <v>0.43720807835193598</v>
+      </c>
       <c r="C91" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D91">
+        <v>0.29477901911837601</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>92</v>
       </c>
+      <c r="B92">
+        <v>0.43707370986702998</v>
+      </c>
       <c r="C92" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D92">
+        <v>0.29476883218341099</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>93</v>
       </c>
+      <c r="B93">
+        <v>0.43638283878607398</v>
+      </c>
       <c r="C93" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D93">
+        <v>0.29167993459914399</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>94</v>
       </c>
+      <c r="B94">
+        <v>0.435439195973717</v>
+      </c>
       <c r="C94" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D94">
+        <v>0.29120030484005399</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>95</v>
       </c>
+      <c r="B95">
+        <v>0.43368436496197499</v>
+      </c>
       <c r="C95" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D95">
+        <v>0.289808687588124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>96</v>
       </c>
+      <c r="B96">
+        <v>0.43341437449776499</v>
+      </c>
       <c r="C96" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D96">
+        <v>0.28946406834765698</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>97</v>
       </c>
+      <c r="B97">
+        <v>0.431759523422164</v>
+      </c>
       <c r="C97" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D97">
+        <v>0.289461414608296</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>98</v>
       </c>
+      <c r="B98">
+        <v>0.43173419060610102</v>
+      </c>
       <c r="C98" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D98">
+        <v>0.28841475290020802</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>99</v>
       </c>
+      <c r="B99">
+        <v>0.43147149486782999</v>
+      </c>
       <c r="C99" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D99">
+        <v>0.28835466465897203</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>100</v>
       </c>
+      <c r="B100">
+        <v>0.43043540531493701</v>
+      </c>
       <c r="C100" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D100">
+        <v>0.28834378065882998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>101</v>
       </c>
+      <c r="B101">
+        <v>0.42942187254661002</v>
+      </c>
       <c r="C101" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D101">
+        <v>0.28752738892903801</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D102">
+        <v>0.28729996224291399</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D103">
+        <v>0.28547899564378898</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D104">
+        <v>0.284550156294548</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D105">
+        <v>0.284467633560883</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D106">
+        <v>0.28329729170061402</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D107">
+        <v>0.28234937477808902</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D108">
+        <v>0.28166115132188702</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D109">
+        <v>0.28069605846880002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D110">
+        <v>0.280253244757384</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D111">
+        <v>0.27997169157167401</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D112">
+        <v>0.27923553571259702</v>
+      </c>
+    </row>
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D113">
+        <v>0.27890198391047599</v>
+      </c>
+    </row>
+    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D114">
+        <v>0.278778707322345</v>
+      </c>
+    </row>
+    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D115">
+        <v>0.27862392216526199</v>
+      </c>
+    </row>
+    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D116">
+        <v>0.27810308607080197</v>
+      </c>
+    </row>
+    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D117">
+        <v>0.27642071314989503</v>
+      </c>
+    </row>
+    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D118">
+        <v>0.276125163629172</v>
+      </c>
+    </row>
+    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D119">
+        <v>0.27554179345074598</v>
+      </c>
+    </row>
+    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D120">
+        <v>0.275228853988221</v>
+      </c>
+    </row>
+    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D121">
+        <v>0.27474174606498902</v>
+      </c>
+    </row>
+    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D122">
+        <v>0.27358574907232402</v>
+      </c>
+    </row>
+    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D123">
+        <v>0.27286455565613899</v>
+      </c>
+    </row>
+    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D124">
+        <v>0.27142393594514003</v>
+      </c>
+    </row>
+    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D125">
+        <v>0.27104018933562102</v>
+      </c>
+    </row>
+    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C126" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D126">
+        <v>0.27099650046988</v>
+      </c>
+    </row>
+    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C127" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D127">
+        <v>0.27097157121786802</v>
+      </c>
+    </row>
+    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D128">
+        <v>0.27085727087255101</v>
+      </c>
+    </row>
+    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D129">
+        <v>0.26982935043437201</v>
+      </c>
+    </row>
+    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C130" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D130">
+        <v>0.26982448932194902</v>
+      </c>
+    </row>
+    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D131">
+        <v>0.26866210256515499</v>
+      </c>
+    </row>
+    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C132" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D132">
+        <v>0.26592437907986799</v>
+      </c>
+    </row>
+    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C133" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D133">
+        <v>0.26440401878130798</v>
+      </c>
+    </row>
+    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C134" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D134">
+        <v>0.26432527487465901</v>
+      </c>
+    </row>
+    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C135" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D135">
+        <v>0.26414214851495799</v>
+      </c>
+    </row>
+    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C136" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D136">
+        <v>0.26374731000866403</v>
+      </c>
+    </row>
+    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C137" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D137">
+        <v>0.26340800436152501</v>
+      </c>
+    </row>
+    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C138" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D138">
+        <v>0.26245548925466999</v>
+      </c>
+    </row>
+    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C139" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D139">
+        <v>0.262212262424519</v>
+      </c>
+    </row>
+    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C140" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D140">
+        <v>0.262002519181323</v>
+      </c>
+    </row>
+    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C141" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D141">
+        <v>0.26188008029432602</v>
+      </c>
+    </row>
+    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C142" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D142">
+        <v>0.26142383279172299</v>
+      </c>
+    </row>
+    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D143">
+        <v>0.26094058318539498</v>
+      </c>
+    </row>
+    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C144" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D144">
+        <v>0.26000970767208198</v>
+      </c>
+    </row>
+    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C145" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D145">
+        <v>0.259422797136307</v>
+      </c>
+    </row>
+    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C146" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D146">
+        <v>0.25935069980727299</v>
+      </c>
+    </row>
+    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C147" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D147">
+        <v>0.25901154702530399</v>
+      </c>
+    </row>
+    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D148">
+        <v>0.25794968440465799</v>
+      </c>
+    </row>
+    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C149" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D149">
+        <v>0.257721040911776</v>
+      </c>
+    </row>
+    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C150" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D150">
+        <v>0.25659896164315099</v>
+      </c>
+    </row>
+    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C151" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D151">
+        <v>0.25623053212371999</v>
+      </c>
+    </row>
+    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C152" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D152">
+        <v>0.25591264594427598</v>
+      </c>
+    </row>
+    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C153" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D153">
+        <v>0.25570651031910502</v>
+      </c>
+    </row>
+    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C154" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D154">
+        <v>0.25526284056273402</v>
+      </c>
+    </row>
+    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C155" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D155">
+        <v>0.25500481026946797</v>
+      </c>
+    </row>
+    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C156" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D156">
+        <v>0.25481788673893002</v>
+      </c>
+    </row>
+    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C157" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D157">
+        <v>0.25473609775808398</v>
+      </c>
+    </row>
+    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C158" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D158">
+        <v>0.25458599638982599</v>
+      </c>
+    </row>
+    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C159" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D159">
+        <v>0.25457716689757598</v>
+      </c>
+    </row>
+    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C160" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D160">
+        <v>0.25257548920844403</v>
+      </c>
+    </row>
+    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C161" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D161">
+        <v>0.25137579112082398</v>
+      </c>
+    </row>
+    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C162" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D162">
+        <v>0.250677221749879</v>
+      </c>
+    </row>
+    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C163" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D163">
+        <v>0.248853717588923</v>
+      </c>
+    </row>
+    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C164" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D164">
+        <v>0.24876680456756001</v>
+      </c>
+    </row>
+    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C165" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D165">
+        <v>0.24869761167676599</v>
+      </c>
+    </row>
+    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C166" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D166">
+        <v>0.24843467135422201</v>
+      </c>
+    </row>
+    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C167" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D167">
+        <v>0.24836512993084001</v>
+      </c>
+    </row>
+    <row r="168" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C168" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D168">
+        <v>0.246715347864293</v>
+      </c>
+    </row>
+    <row r="169" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C169" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D169">
+        <v>0.24606985328056</v>
+      </c>
+    </row>
+    <row r="170" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C170" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D170">
+        <v>0.24562516849945601</v>
+      </c>
+    </row>
+    <row r="171" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C171" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D171">
+        <v>0.24528201676462499</v>
+      </c>
+    </row>
+    <row r="172" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C172" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D172">
+        <v>0.24516382752936999</v>
+      </c>
+    </row>
+    <row r="173" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C173" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D173">
+        <v>0.24461375749969499</v>
+      </c>
+    </row>
+    <row r="174" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C174" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D174">
+        <v>0.244511392866894</v>
+      </c>
+    </row>
+    <row r="175" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C175" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D175">
+        <v>0.24440104255758399</v>
+      </c>
+    </row>
+    <row r="176" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C176" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D176">
+        <v>0.243654553012978</v>
+      </c>
+    </row>
+    <row r="177" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C177" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D177">
+        <v>0.243581550722134</v>
+      </c>
+    </row>
+    <row r="178" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C178" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D178">
+        <v>0.24349326191423601</v>
+      </c>
+    </row>
+    <row r="179" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C179" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D179">
+        <v>0.24151891040299001</v>
+      </c>
+    </row>
+    <row r="180" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C180" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D180">
+        <v>0.240353717041665</v>
+      </c>
+    </row>
+    <row r="181" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C181" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D181">
+        <v>0.24027823833505901</v>
+      </c>
+    </row>
+    <row r="182" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C182" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D182">
+        <v>0.23968406364638001</v>
+      </c>
+    </row>
+    <row r="183" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C183" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D183">
+        <v>0.239028950786116</v>
+      </c>
+    </row>
+    <row r="184" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C184" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D184">
+        <v>0.23856528626543799</v>
+      </c>
+    </row>
+    <row r="185" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C185" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D185">
+        <v>0.23810306479196999</v>
+      </c>
+    </row>
+    <row r="186" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C186" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D186">
+        <v>0.23806164444535999</v>
+      </c>
+    </row>
+    <row r="187" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C187" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D187">
+        <v>0.23664143529193199</v>
+      </c>
+    </row>
+    <row r="188" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C188" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D188">
+        <v>0.235976606321429</v>
+      </c>
+    </row>
+    <row r="189" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C189" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D189">
+        <v>0.235601059399657</v>
+      </c>
+    </row>
+    <row r="190" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C190" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D190">
+        <v>0.23480493147687301</v>
+      </c>
+    </row>
+    <row r="191" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C191" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D191">
+        <v>0.23440699286492001</v>
+      </c>
+    </row>
+    <row r="192" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C192" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D192">
+        <v>0.234176343781001</v>
+      </c>
+    </row>
+    <row r="193" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C193" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D193">
+        <v>0.233987683702126</v>
+      </c>
+    </row>
+    <row r="194" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C194" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="195" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D194">
+        <v>0.23390802260445401</v>
+      </c>
+    </row>
+    <row r="195" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C195" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="196" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D195">
+        <v>0.23264110052943801</v>
+      </c>
+    </row>
+    <row r="196" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C196" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="197" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D196">
+        <v>0.23248670670719099</v>
+      </c>
+    </row>
+    <row r="197" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C197" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="198" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D197">
+        <v>0.23239065234862999</v>
+      </c>
+    </row>
+    <row r="198" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C198" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="199" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D198">
+        <v>0.23235890531001199</v>
+      </c>
+    </row>
+    <row r="199" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C199" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="200" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D199">
+        <v>0.231440839897991</v>
+      </c>
+    </row>
+    <row r="200" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C200" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="201" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D200">
+        <v>0.23143349625519799</v>
+      </c>
+    </row>
+    <row r="201" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C201" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="202" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D201">
+        <v>0.23135266726762199</v>
+      </c>
+    </row>
+    <row r="202" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C202" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="203" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D202">
+        <v>0.23003327575146901</v>
+      </c>
+    </row>
+    <row r="203" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C203" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="204" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D203">
+        <v>0.23000709911966599</v>
+      </c>
+    </row>
+    <row r="204" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C204" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="205" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D204">
+        <v>0.229485186854405</v>
+      </c>
+    </row>
+    <row r="205" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C205" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="206" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D205">
+        <v>0.22921234086881001</v>
+      </c>
+    </row>
+    <row r="206" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C206" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="207" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D206">
+        <v>0.22906453247811001</v>
+      </c>
+    </row>
+    <row r="207" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C207" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="208" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D207">
+        <v>0.22887809811611801</v>
+      </c>
+    </row>
+    <row r="208" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C208" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="209" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D208">
+        <v>0.22884229097857101</v>
+      </c>
+    </row>
+    <row r="209" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C209" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="210" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D209">
+        <v>0.228492743365005</v>
+      </c>
+    </row>
+    <row r="210" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C210" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="211" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D210">
+        <v>0.22787650106030599</v>
+      </c>
+    </row>
+    <row r="211" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C211" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="212" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D211">
+        <v>0.22751700498144201</v>
+      </c>
+    </row>
+    <row r="212" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C212" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="213" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D212">
+        <v>0.227231697427144</v>
+      </c>
+    </row>
+    <row r="213" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C213" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="214" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D213">
+        <v>0.22699584481282001</v>
+      </c>
+    </row>
+    <row r="214" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C214" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="215" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D214">
+        <v>0.226873240831439</v>
+      </c>
+    </row>
+    <row r="215" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C215" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="216" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D215">
+        <v>0.226129674068894</v>
+      </c>
+    </row>
+    <row r="216" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C216" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="217" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D216">
+        <v>0.22574411753575499</v>
+      </c>
+    </row>
+    <row r="217" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C217" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="218" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D217">
+        <v>0.225680770209083</v>
+      </c>
+    </row>
+    <row r="218" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C218" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="219" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D218">
+        <v>0.22533147329439701</v>
+      </c>
+    </row>
+    <row r="219" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C219" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="220" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D219">
+        <v>0.225270865311581</v>
+      </c>
+    </row>
+    <row r="220" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C220" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="221" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D220">
+        <v>0.22353529531132599</v>
+      </c>
+    </row>
+    <row r="221" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C221" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="222" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D221">
+        <v>0.223487093865751</v>
+      </c>
+    </row>
+    <row r="222" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C222" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="223" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D222">
+        <v>0.22292927051462699</v>
+      </c>
+    </row>
+    <row r="223" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C223" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="224" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D223">
+        <v>0.22222917860658301</v>
+      </c>
+    </row>
+    <row r="224" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C224" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="225" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D224">
+        <v>0.22198025907748101</v>
+      </c>
+    </row>
+    <row r="225" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C225" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="226" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D225">
+        <v>0.221762242771255</v>
+      </c>
+    </row>
+    <row r="226" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C226" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="227" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D226">
+        <v>0.221748955730632</v>
+      </c>
+    </row>
+    <row r="227" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C227" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="228" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D227">
+        <v>0.221400465944046</v>
+      </c>
+    </row>
+    <row r="228" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C228" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="229" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D228">
+        <v>0.221328044540851</v>
+      </c>
+    </row>
+    <row r="229" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C229" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="230" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D229">
+        <v>0.22129607737638701</v>
+      </c>
+    </row>
+    <row r="230" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C230" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="231" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D230">
+        <v>0.22085266443350199</v>
+      </c>
+    </row>
+    <row r="231" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C231" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="232" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D231">
+        <v>0.220397945582604</v>
+      </c>
+    </row>
+    <row r="232" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C232" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="233" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D232">
+        <v>0.21995197061946101</v>
+      </c>
+    </row>
+    <row r="233" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C233" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="234" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D233">
+        <v>0.21976246061023799</v>
+      </c>
+    </row>
+    <row r="234" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C234" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="235" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D234">
+        <v>0.21960974830486699</v>
+      </c>
+    </row>
+    <row r="235" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C235" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="236" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D235">
+        <v>0.21932922237310401</v>
+      </c>
+    </row>
+    <row r="236" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C236" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="237" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D236">
+        <v>0.21891347191148</v>
+      </c>
+    </row>
+    <row r="237" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C237" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="238" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D237">
+        <v>0.21838894870910699</v>
+      </c>
+    </row>
+    <row r="238" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C238" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="239" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D238">
+        <v>0.218123794898893</v>
+      </c>
+    </row>
+    <row r="239" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C239" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="240" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D239">
+        <v>0.21785079604812699</v>
+      </c>
+    </row>
+    <row r="240" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C240" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="241" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D240">
+        <v>0.21760063525383999</v>
+      </c>
+    </row>
+    <row r="241" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C241" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="242" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D241">
+        <v>0.21748220143431199</v>
+      </c>
+    </row>
+    <row r="242" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C242" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="243" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D242">
+        <v>0.21692272713934499</v>
+      </c>
+    </row>
+    <row r="243" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C243" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="244" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D243">
+        <v>0.21687541842636601</v>
+      </c>
+    </row>
+    <row r="244" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C244" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="245" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D244">
+        <v>0.21654869664006601</v>
+      </c>
+    </row>
+    <row r="245" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C245" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="246" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D245">
+        <v>0.21605646467631701</v>
+      </c>
+    </row>
+    <row r="246" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C246" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="247" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D246">
+        <v>0.21542768742763399</v>
+      </c>
+    </row>
+    <row r="247" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C247" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="248" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D247">
+        <v>0.21520661993260401</v>
+      </c>
+    </row>
+    <row r="248" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C248" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="249" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D248">
+        <v>0.214879574072142</v>
+      </c>
+    </row>
+    <row r="249" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C249" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="250" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D249">
+        <v>0.21386878064767101</v>
+      </c>
+    </row>
+    <row r="250" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C250" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="251" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D250">
+        <v>0.213696917393735</v>
+      </c>
+    </row>
+    <row r="251" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C251" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="252" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D251">
+        <v>0.21365348534148099</v>
+      </c>
+    </row>
+    <row r="252" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C252" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="253" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D252">
+        <v>0.21316397437776699</v>
+      </c>
+    </row>
+    <row r="253" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C253" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="254" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D253">
+        <v>0.213066061178732</v>
+      </c>
+    </row>
+    <row r="254" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C254" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="255" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D254">
+        <v>0.212991285651911</v>
+      </c>
+    </row>
+    <row r="255" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C255" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="256" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D255">
+        <v>0.21258161310946799</v>
+      </c>
+    </row>
+    <row r="256" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C256" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="257" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D256">
+        <v>0.212075091309577</v>
+      </c>
+    </row>
+    <row r="257" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C257" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="258" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D257">
+        <v>0.21204086785519599</v>
+      </c>
+    </row>
+    <row r="258" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C258" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="259" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D258">
+        <v>0.210999201780882</v>
+      </c>
+    </row>
+    <row r="259" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C259" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="260" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D259">
+        <v>0.21037969427614001</v>
+      </c>
+    </row>
+    <row r="260" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C260" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="261" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D260">
+        <v>0.20981587861033099</v>
+      </c>
+    </row>
+    <row r="261" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C261" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="262" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D261">
+        <v>0.209702795071771</v>
+      </c>
+    </row>
+    <row r="262" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C262" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="263" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D262">
+        <v>0.20863869450502801</v>
+      </c>
+    </row>
+    <row r="263" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C263" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="264" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D263">
+        <v>0.20811510683749801</v>
+      </c>
+    </row>
+    <row r="264" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C264" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="265" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D264">
+        <v>0.207674781771058</v>
+      </c>
+    </row>
+    <row r="265" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C265" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="266" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D265">
+        <v>0.20753025080961501</v>
+      </c>
+    </row>
+    <row r="266" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C266" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="267" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D266">
+        <v>0.207417014405885</v>
+      </c>
+    </row>
+    <row r="267" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C267" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="268" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D267">
+        <v>0.20617318108622701</v>
+      </c>
+    </row>
+    <row r="268" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C268" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="269" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D268">
+        <v>0.20608739926712599</v>
+      </c>
+    </row>
+    <row r="269" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C269" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="270" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D269">
+        <v>0.205800611977978</v>
+      </c>
+    </row>
+    <row r="270" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C270" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="271" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D270">
+        <v>0.205000766374246</v>
+      </c>
+    </row>
+    <row r="271" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C271" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="272" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D271">
+        <v>0.20478586240289301</v>
+      </c>
+    </row>
+    <row r="272" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C272" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="273" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D272">
+        <v>0.20477151753528899</v>
+      </c>
+    </row>
+    <row r="273" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C273" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="274" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D273">
+        <v>0.20328774092934301</v>
+      </c>
+    </row>
+    <row r="274" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C274" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="275" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D274">
+        <v>0.202867221074398</v>
+      </c>
+    </row>
+    <row r="275" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C275" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="276" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D275">
+        <v>0.202865912548539</v>
+      </c>
+    </row>
+    <row r="276" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C276" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="277" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D276">
+        <v>0.20269771805869599</v>
+      </c>
+    </row>
+    <row r="277" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C277" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="278" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D277">
+        <v>0.20263527569383299</v>
+      </c>
+    </row>
+    <row r="278" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C278" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="279" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D278">
+        <v>0.20263290934099301</v>
+      </c>
+    </row>
+    <row r="279" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C279" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="280" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D279">
+        <v>0.20251568621361599</v>
+      </c>
+    </row>
+    <row r="280" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C280" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="281" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D280">
+        <v>0.202256426884378</v>
+      </c>
+    </row>
+    <row r="281" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C281" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="282" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D281">
+        <v>0.201572006713618</v>
+      </c>
+    </row>
+    <row r="282" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C282" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="283" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D282">
+        <v>0.20079844780461201</v>
+      </c>
+    </row>
+    <row r="283" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C283" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="284" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D283">
+        <v>0.20065734102298999</v>
+      </c>
+    </row>
+    <row r="284" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C284" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="285" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D284">
+        <v>0.20046479816878299</v>
+      </c>
+    </row>
+    <row r="285" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C285" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="286" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D285">
+        <v>0.20025779426944301</v>
+      </c>
+    </row>
+    <row r="286" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C286" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="287" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D286">
+        <v>0.200210228742978</v>
+      </c>
+    </row>
+    <row r="287" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C287" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="288" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D287">
+        <v>0.200161623733352</v>
+      </c>
+    </row>
+    <row r="288" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C288" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="289" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D288">
+        <v>0.20000102358518199</v>
+      </c>
+    </row>
+    <row r="289" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C289" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="290" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D289">
+        <v>0.19934560499457701</v>
+      </c>
+    </row>
+    <row r="290" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C290" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="291" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D290">
+        <v>0.19886764452315001</v>
+      </c>
+    </row>
+    <row r="291" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C291" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="292" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D291">
+        <v>0.198056774283319</v>
+      </c>
+    </row>
+    <row r="292" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C292" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="293" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D292">
+        <v>0.19792640475127499</v>
+      </c>
+    </row>
+    <row r="293" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C293" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="294" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D293">
+        <v>0.19791220051962799</v>
+      </c>
+    </row>
+    <row r="294" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C294" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="295" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D294">
+        <v>0.197498963161408</v>
+      </c>
+    </row>
+    <row r="295" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C295" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="296" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D295">
+        <v>0.197495661273724</v>
+      </c>
+    </row>
+    <row r="296" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C296" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="297" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D296">
+        <v>0.197119790277791</v>
+      </c>
+    </row>
+    <row r="297" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C297" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="298" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D297">
+        <v>0.19666831828311501</v>
+      </c>
+    </row>
+    <row r="298" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C298" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="299" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D298">
+        <v>0.195795922869445</v>
+      </c>
+    </row>
+    <row r="299" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C299" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="300" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D299">
+        <v>0.195059864844076</v>
+      </c>
+    </row>
+    <row r="300" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C300" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="301" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D300">
+        <v>0.194825314641005</v>
+      </c>
+    </row>
+    <row r="301" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C301" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="302" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D301">
+        <v>0.19439559841740001</v>
+      </c>
+    </row>
+    <row r="302" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C302" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="303" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D302">
+        <v>0.19423905225355301</v>
+      </c>
+    </row>
+    <row r="303" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C303" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="304" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D303">
+        <v>0.19407115126483701</v>
+      </c>
+    </row>
+    <row r="304" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C304" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="305" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D304">
+        <v>0.19384070396294301</v>
+      </c>
+    </row>
+    <row r="305" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C305" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="306" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D305">
+        <v>0.19370088124875301</v>
+      </c>
+    </row>
+    <row r="306" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C306" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="307" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D306">
+        <v>0.19346245438495699</v>
+      </c>
+    </row>
+    <row r="307" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C307" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="308" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D307">
+        <v>0.193368234408442</v>
+      </c>
+    </row>
+    <row r="308" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C308" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="309" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D308">
+        <v>0.19310428517577199</v>
+      </c>
+    </row>
+    <row r="309" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C309" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="310" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D309">
+        <v>0.192890078269597</v>
+      </c>
+    </row>
+    <row r="310" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C310" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="311" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D310">
+        <v>0.192402548438494</v>
+      </c>
+    </row>
+    <row r="311" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C311" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="312" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D311">
+        <v>0.19213879487324201</v>
+      </c>
+    </row>
+    <row r="312" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C312" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="313" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D312">
+        <v>0.19209050170856501</v>
+      </c>
+    </row>
+    <row r="313" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C313" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="314" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D313">
+        <v>0.19198322704648599</v>
+      </c>
+    </row>
+    <row r="314" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C314" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="315" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D314">
+        <v>0.191700677179865</v>
+      </c>
+    </row>
+    <row r="315" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C315" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="316" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D315">
+        <v>0.191667664417635</v>
+      </c>
+    </row>
+    <row r="316" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C316" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="317" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D316">
+        <v>0.19153139429000801</v>
+      </c>
+    </row>
+    <row r="317" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C317" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="318" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D317">
+        <v>0.19119775076878501</v>
+      </c>
+    </row>
+    <row r="318" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C318" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="319" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D318">
+        <v>0.19078323545773901</v>
+      </c>
+    </row>
+    <row r="319" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C319" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="320" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D319">
+        <v>0.19019140266347301</v>
+      </c>
+    </row>
+    <row r="320" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C320" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="321" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D320">
+        <v>0.19004316625029599</v>
+      </c>
+    </row>
+    <row r="321" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C321" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="322" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D321">
+        <v>0.18933352944100301</v>
+      </c>
+    </row>
+    <row r="322" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C322" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="323" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D322">
+        <v>0.18929251265844399</v>
+      </c>
+    </row>
+    <row r="323" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C323" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="324" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D323">
+        <v>0.18909348220639899</v>
+      </c>
+    </row>
+    <row r="324" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C324" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="325" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D324">
+        <v>0.18895191682926499</v>
+      </c>
+    </row>
+    <row r="325" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C325" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="326" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D325">
+        <v>0.18824992327849999</v>
+      </c>
+    </row>
+    <row r="326" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C326" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="327" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D326">
+        <v>0.188068820853656</v>
+      </c>
+    </row>
+    <row r="327" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C327" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="328" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D327">
+        <v>0.18783699165062101</v>
+      </c>
+    </row>
+    <row r="328" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C328" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="329" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D328">
+        <v>0.187600331908196</v>
+      </c>
+    </row>
+    <row r="329" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C329" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="330" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D329">
+        <v>0.187180570264497</v>
+      </c>
+    </row>
+    <row r="330" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C330" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="331" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D330">
+        <v>0.18698519634733199</v>
+      </c>
+    </row>
+    <row r="331" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C331" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="332" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D331">
+        <v>0.186903596919297</v>
+      </c>
+    </row>
+    <row r="332" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C332" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="333" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D332">
+        <v>0.18687707786951199</v>
+      </c>
+    </row>
+    <row r="333" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C333" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="334" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D333">
+        <v>0.186656004259875</v>
+      </c>
+    </row>
+    <row r="334" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C334" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="335" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D334">
+        <v>0.186563643123834</v>
+      </c>
+    </row>
+    <row r="335" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C335" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="336" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D335">
+        <v>0.18597278255205299</v>
+      </c>
+    </row>
+    <row r="336" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C336" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="337" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D336">
+        <v>0.185957606097921</v>
+      </c>
+    </row>
+    <row r="337" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C337" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="338" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D337">
+        <v>0.18539042739836001</v>
+      </c>
+    </row>
+    <row r="338" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C338" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="339" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D338">
+        <v>0.18524241111102799</v>
+      </c>
+    </row>
+    <row r="339" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C339" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="340" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D339">
+        <v>0.184931660677746</v>
+      </c>
+    </row>
+    <row r="340" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C340" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="341" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D340">
+        <v>0.18489493023456799</v>
+      </c>
+    </row>
+    <row r="341" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C341" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="342" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D341">
+        <v>0.18478873785789701</v>
+      </c>
+    </row>
+    <row r="342" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C342" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="343" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D342">
+        <v>0.18426645871622599</v>
+      </c>
+    </row>
+    <row r="343" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C343" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="344" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D343">
+        <v>0.18375303963983999</v>
+      </c>
+    </row>
+    <row r="344" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C344" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="345" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D344">
+        <v>0.18323340812292399</v>
+      </c>
+    </row>
+    <row r="345" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C345" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="346" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D345">
+        <v>0.18301288482790101</v>
+      </c>
+    </row>
+    <row r="346" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C346" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="347" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D346">
+        <v>0.18243336073716701</v>
+      </c>
+    </row>
+    <row r="347" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C347" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="348" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D347">
+        <v>0.182268449791187</v>
+      </c>
+    </row>
+    <row r="348" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C348" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="349" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D348">
+        <v>0.18177306269031801</v>
+      </c>
+    </row>
+    <row r="349" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C349" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="350" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D349">
+        <v>0.18169210529599999</v>
+      </c>
+    </row>
+    <row r="350" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C350" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="351" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D350">
+        <v>0.181479549333666</v>
+      </c>
+    </row>
+    <row r="351" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C351" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="352" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D351">
+        <v>0.18137096614572701</v>
+      </c>
+    </row>
+    <row r="352" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C352" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="353" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D352">
+        <v>0.18085112673217901</v>
+      </c>
+    </row>
+    <row r="353" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C353" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="354" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D353">
+        <v>0.18035218093013999</v>
+      </c>
+    </row>
+    <row r="354" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C354" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="355" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D354">
+        <v>0.179918606389631</v>
+      </c>
+    </row>
+    <row r="355" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C355" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="356" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D355">
+        <v>0.17970110982498499</v>
+      </c>
+    </row>
+    <row r="356" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C356" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="357" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D356">
+        <v>0.179421831273014</v>
+      </c>
+    </row>
+    <row r="357" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C357" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="358" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D357">
+        <v>0.179199070031894</v>
+      </c>
+    </row>
+    <row r="358" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C358" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="359" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D358">
+        <v>0.17903020904990799</v>
+      </c>
+    </row>
+    <row r="359" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C359" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="360" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D359">
+        <v>0.17886588510618301</v>
+      </c>
+    </row>
+    <row r="360" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C360" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="361" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D360">
+        <v>0.178525063036552</v>
+      </c>
+    </row>
+    <row r="361" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C361" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="362" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D361">
+        <v>0.17826430562864301</v>
+      </c>
+    </row>
+    <row r="362" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C362" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="363" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D362">
+        <v>0.17818597140065101</v>
+      </c>
+    </row>
+    <row r="363" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C363" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="364" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D363">
+        <v>0.178027658115432</v>
+      </c>
+    </row>
+    <row r="364" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C364" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="365" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D364">
+        <v>0.17759923207386699</v>
+      </c>
+    </row>
+    <row r="365" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C365" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="366" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D365">
+        <v>0.17742350438842</v>
+      </c>
+    </row>
+    <row r="366" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C366" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="367" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D366">
+        <v>0.17664875924569101</v>
+      </c>
+    </row>
+    <row r="367" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C367" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="368" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D367">
+        <v>0.176408950480753</v>
+      </c>
+    </row>
+    <row r="368" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C368" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="369" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D368">
+        <v>0.17615665568868499</v>
+      </c>
+    </row>
+    <row r="369" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C369" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="370" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D369">
+        <v>0.17594930325675601</v>
+      </c>
+    </row>
+    <row r="370" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C370" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="371" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D370">
+        <v>0.17591551393946001</v>
+      </c>
+    </row>
+    <row r="371" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C371" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="372" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D371">
+        <v>0.1757166485818</v>
+      </c>
+    </row>
+    <row r="372" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C372" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="373" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D372">
+        <v>0.17554471195258201</v>
+      </c>
+    </row>
+    <row r="373" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C373" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="374" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D373">
+        <v>0.17551432847128501</v>
+      </c>
+    </row>
+    <row r="374" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C374" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="375" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D374">
+        <v>0.17537194373683701</v>
+      </c>
+    </row>
+    <row r="375" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C375" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="376" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D375">
+        <v>0.17424098605910601</v>
+      </c>
+    </row>
+    <row r="376" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C376" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="377" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D376">
+        <v>0.17385344227875099</v>
+      </c>
+    </row>
+    <row r="377" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C377" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="378" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D377">
+        <v>0.17346746995234799</v>
+      </c>
+    </row>
+    <row r="378" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C378" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="379" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D378">
+        <v>0.173392046277203</v>
+      </c>
+    </row>
+    <row r="379" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C379" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="380" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D379">
+        <v>0.17255008937629099</v>
+      </c>
+    </row>
+    <row r="380" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C380" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="381" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D380">
+        <v>0.17209582912090399</v>
+      </c>
+    </row>
+    <row r="381" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C381" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="382" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D381">
+        <v>0.172070606367765</v>
+      </c>
+    </row>
+    <row r="382" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C382" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="383" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D382">
+        <v>0.17172238562387901</v>
+      </c>
+    </row>
+    <row r="383" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C383" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="384" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D383">
+        <v>0.17132339529955401</v>
+      </c>
+    </row>
+    <row r="384" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C384" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="385" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D384">
+        <v>0.17116769295144801</v>
+      </c>
+    </row>
+    <row r="385" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C385" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="386" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D385">
+        <v>0.17116609703906699</v>
+      </c>
+    </row>
+    <row r="386" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C386" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="387" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D386">
+        <v>0.17102558337430601</v>
+      </c>
+    </row>
+    <row r="387" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C387" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="388" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D387">
+        <v>0.17046636589282599</v>
+      </c>
+    </row>
+    <row r="388" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C388" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="389" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D388">
+        <v>0.17039518575481499</v>
+      </c>
+    </row>
+    <row r="389" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C389" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="390" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D389">
+        <v>0.170301185904146</v>
+      </c>
+    </row>
+    <row r="390" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C390" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="391" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D390">
+        <v>0.17021304996141901</v>
+      </c>
+    </row>
+    <row r="391" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C391" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="392" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D391">
+        <v>0.17013824386156301</v>
+      </c>
+    </row>
+    <row r="392" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C392" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="393" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D392">
+        <v>0.17007011491235599</v>
+      </c>
+    </row>
+    <row r="393" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C393" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="394" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D393">
+        <v>0.169845794446498</v>
+      </c>
+    </row>
+    <row r="394" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C394" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="395" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D394">
+        <v>0.16982211257427701</v>
+      </c>
+    </row>
+    <row r="395" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C395" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="396" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D395">
+        <v>0.16947204521913201</v>
+      </c>
+    </row>
+    <row r="396" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C396" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="397" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D396">
+        <v>0.16910690535817099</v>
+      </c>
+    </row>
+    <row r="397" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C397" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="398" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D397">
+        <v>0.169047336858514</v>
+      </c>
+    </row>
+    <row r="398" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C398" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="399" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D398">
+        <v>0.16904707393042101</v>
+      </c>
+    </row>
+    <row r="399" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C399" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="400" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D399">
+        <v>0.16899090515215701</v>
+      </c>
+    </row>
+    <row r="400" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C400" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="401" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D400">
+        <v>0.16890460359147699</v>
+      </c>
+    </row>
+    <row r="401" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C401" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="402" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D401">
+        <v>0.168851498231231</v>
+      </c>
+    </row>
+    <row r="402" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C402" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="403" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D402">
+        <v>0.168668971102998</v>
+      </c>
+    </row>
+    <row r="403" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C403" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="404" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D403">
+        <v>0.168622341111376</v>
+      </c>
+    </row>
+    <row r="404" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C404" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="405" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D404">
+        <v>0.16854638546543799</v>
+      </c>
+    </row>
+    <row r="405" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C405" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="406" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D405">
+        <v>0.168430807167295</v>
+      </c>
+    </row>
+    <row r="406" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C406" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="407" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D406">
+        <v>0.16802191117991799</v>
+      </c>
+    </row>
+    <row r="407" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C407" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="408" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D407">
+        <v>0.167419182156296</v>
+      </c>
+    </row>
+    <row r="408" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C408" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="409" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D408">
+        <v>0.16736717742527801</v>
+      </c>
+    </row>
+    <row r="409" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C409" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="410" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D409">
+        <v>0.166640028382048</v>
+      </c>
+    </row>
+    <row r="410" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C410" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="411" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D410">
+        <v>0.16644017857269</v>
+      </c>
+    </row>
+    <row r="411" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C411" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="412" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D411">
+        <v>0.16638271349778</v>
+      </c>
+    </row>
+    <row r="412" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C412" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="413" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D412">
+        <v>0.166370184668402</v>
+      </c>
+    </row>
+    <row r="413" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C413" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="414" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D413">
+        <v>0.16628731951675599</v>
+      </c>
+    </row>
+    <row r="414" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C414" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="415" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D414">
+        <v>0.165709140639522</v>
+      </c>
+    </row>
+    <row r="415" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C415" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="416" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D415">
+        <v>0.16563255518908099</v>
+      </c>
+    </row>
+    <row r="416" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C416" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="417" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D416">
+        <v>0.16498578876712899</v>
+      </c>
+    </row>
+    <row r="417" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C417" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="418" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D417">
+        <v>0.16495354644535801</v>
+      </c>
+    </row>
+    <row r="418" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C418" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="419" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D418">
+        <v>0.16452749898584701</v>
+      </c>
+    </row>
+    <row r="419" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C419" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="420" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D419">
+        <v>0.16452272959252601</v>
+      </c>
+    </row>
+    <row r="420" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C420" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="421" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D420">
+        <v>0.16452272959252601</v>
+      </c>
+    </row>
+    <row r="421" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C421" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="422" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D421">
+        <v>0.164327765354018</v>
+      </c>
+    </row>
+    <row r="422" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C422" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="423" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D422">
+        <v>0.16391561028120499</v>
+      </c>
+    </row>
+    <row r="423" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C423" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="424" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D423">
+        <v>0.16389381782249299</v>
+      </c>
+    </row>
+    <row r="424" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C424" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="425" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D424">
+        <v>0.16382442314967399</v>
+      </c>
+    </row>
+    <row r="425" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C425" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="426" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D425">
+        <v>0.163739271135076</v>
+      </c>
+    </row>
+    <row r="426" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C426" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="427" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D426">
+        <v>0.163415808434211</v>
+      </c>
+    </row>
+    <row r="427" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C427" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="428" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D427">
+        <v>0.16339842460701701</v>
+      </c>
+    </row>
+    <row r="428" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C428" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="429" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D428">
+        <v>0.163235776065562</v>
+      </c>
+    </row>
+    <row r="429" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C429" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="430" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D429">
+        <v>0.16318361846937299</v>
+      </c>
+    </row>
+    <row r="430" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C430" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="431" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D430">
+        <v>0.16266439663111301</v>
+      </c>
+    </row>
+    <row r="431" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C431" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="432" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D431">
+        <v>0.16240384100523</v>
+      </c>
+    </row>
+    <row r="432" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C432" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="433" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D432">
+        <v>0.16233533295040001</v>
+      </c>
+    </row>
+    <row r="433" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C433" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="434" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D433">
+        <v>0.16216834303810099</v>
+      </c>
+    </row>
+    <row r="434" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C434" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="435" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D434">
+        <v>0.16200980962703601</v>
+      </c>
+    </row>
+    <row r="435" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C435" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="436" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D435">
+        <v>0.16178644303984199</v>
+      </c>
+    </row>
+    <row r="436" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C436" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="437" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D436">
+        <v>0.16107721590920701</v>
+      </c>
+    </row>
+    <row r="437" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C437" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="438" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D437">
+        <v>0.160476938842919</v>
+      </c>
+    </row>
+    <row r="438" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C438" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="439" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D438">
+        <v>0.159658076811972</v>
+      </c>
+    </row>
+    <row r="439" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C439" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="440" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D439">
+        <v>0.15960387693710501</v>
+      </c>
+    </row>
+    <row r="440" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C440" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="441" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D440">
+        <v>0.15944370481141201</v>
+      </c>
+    </row>
+    <row r="441" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C441" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="442" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D441">
+        <v>0.15932078287047699</v>
+      </c>
+    </row>
+    <row r="442" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C442" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="443" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D442">
+        <v>0.15921847326913699</v>
+      </c>
+    </row>
+    <row r="443" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C443" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="444" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D443">
+        <v>0.15915675854248601</v>
+      </c>
+    </row>
+    <row r="444" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C444" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="445" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D444">
+        <v>0.15897886628622401</v>
+      </c>
+    </row>
+    <row r="445" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C445" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="446" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D445">
+        <v>0.158782648553318</v>
+      </c>
+    </row>
+    <row r="446" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C446" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="447" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D446">
+        <v>0.158652994430272</v>
+      </c>
+    </row>
+    <row r="447" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C447" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="448" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D447">
+        <v>0.158631911265951</v>
+      </c>
+    </row>
+    <row r="448" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C448" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="449" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D448">
+        <v>0.15846828438740401</v>
+      </c>
+    </row>
+    <row r="449" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C449" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="450" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D449">
+        <v>0.15820761869859701</v>
+      </c>
+    </row>
+    <row r="450" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C450" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="451" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D450">
+        <v>0.158062335640515</v>
+      </c>
+    </row>
+    <row r="451" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C451" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="452" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D451">
+        <v>0.157581372897139</v>
+      </c>
+    </row>
+    <row r="452" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C452" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="453" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D452">
+        <v>0.15751907116823299</v>
+      </c>
+    </row>
+    <row r="453" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C453" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="454" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D453">
+        <v>0.157279133996552</v>
+      </c>
+    </row>
+    <row r="454" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C454" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="455" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D454">
+        <v>0.157087282092916</v>
+      </c>
+    </row>
+    <row r="455" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C455" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="456" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D455">
+        <v>0.15700886226042801</v>
+      </c>
+    </row>
+    <row r="456" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C456" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="457" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D456">
+        <v>0.156935756021269</v>
+      </c>
+    </row>
+    <row r="457" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C457" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="458" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D457">
+        <v>0.15687253710134</v>
+      </c>
+    </row>
+    <row r="458" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C458" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="459" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D458">
+        <v>0.15679534019021699</v>
+      </c>
+    </row>
+    <row r="459" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C459" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="460" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D459">
+        <v>0.15677722872481101</v>
+      </c>
+    </row>
+    <row r="460" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C460" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="461" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D460">
+        <v>0.15675935572907099</v>
+      </c>
+    </row>
+    <row r="461" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C461" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="462" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D461">
+        <v>0.15666944043575901</v>
+      </c>
+    </row>
+    <row r="462" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C462" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="463" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D462">
+        <v>0.15662441247112499</v>
+      </c>
+    </row>
+    <row r="463" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C463" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="464" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D463">
+        <v>0.15648415561984999</v>
+      </c>
+    </row>
+    <row r="464" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C464" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="465" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D464">
+        <v>0.15621651316466001</v>
+      </c>
+    </row>
+    <row r="465" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C465" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="466" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D465">
+        <v>0.155955236015171</v>
+      </c>
+    </row>
+    <row r="466" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C466" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="467" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D466">
+        <v>0.155937491426175</v>
+      </c>
+    </row>
+    <row r="467" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C467" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="468" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D467">
+        <v>0.155780413291534</v>
+      </c>
+    </row>
+    <row r="468" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C468" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="469" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D468">
+        <v>0.15565206157974101</v>
+      </c>
+    </row>
+    <row r="469" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C469" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="470" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D469">
+        <v>0.15549548484285899</v>
+      </c>
+    </row>
+    <row r="470" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C470" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="471" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D470">
+        <v>0.155313446883172</v>
+      </c>
+    </row>
+    <row r="471" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C471" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="472" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D471">
+        <v>0.15529633821328501</v>
+      </c>
+    </row>
+    <row r="472" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C472" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="473" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D472">
+        <v>0.155153128006915</v>
+      </c>
+    </row>
+    <row r="473" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C473" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="474" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D473">
+        <v>0.15501335420957901</v>
+      </c>
+    </row>
+    <row r="474" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C474" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="475" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D474">
+        <v>0.154913777837489</v>
+      </c>
+    </row>
+    <row r="475" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C475" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="476" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D475">
+        <v>0.15473962772060201</v>
+      </c>
+    </row>
+    <row r="476" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C476" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="477" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D476">
+        <v>0.15465900051505199</v>
+      </c>
+    </row>
+    <row r="477" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C477" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="478" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D477">
+        <v>0.15464548111936899</v>
+      </c>
+    </row>
+    <row r="478" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C478" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="479" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D478">
+        <v>0.154202239385475</v>
+      </c>
+    </row>
+    <row r="479" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C479" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="480" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D479">
+        <v>0.15410041895268101</v>
+      </c>
+    </row>
+    <row r="480" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C480" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="481" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D480">
+        <v>0.15400693884359201</v>
+      </c>
+    </row>
+    <row r="481" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C481" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="482" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D481">
+        <v>0.153817165906276</v>
+      </c>
+    </row>
+    <row r="482" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C482" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="483" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D482">
+        <v>0.15367703746174399</v>
+      </c>
+    </row>
+    <row r="483" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C483" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="484" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D483">
+        <v>0.15353510520819999</v>
+      </c>
+    </row>
+    <row r="484" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C484" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="485" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D484">
+        <v>0.153452606932963</v>
+      </c>
+    </row>
+    <row r="485" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C485" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="486" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D485">
+        <v>0.15333317643252201</v>
+      </c>
+    </row>
+    <row r="486" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C486" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="487" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D486">
+        <v>0.15332213345260201</v>
+      </c>
+    </row>
+    <row r="487" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C487" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="488" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D487">
+        <v>0.15326710199120799</v>
+      </c>
+    </row>
+    <row r="488" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C488" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="489" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D488">
+        <v>0.153091771755204</v>
+      </c>
+    </row>
+    <row r="489" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C489" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="490" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D489">
+        <v>0.15308543090793</v>
+      </c>
+    </row>
+    <row r="490" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C490" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="491" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D490">
+        <v>0.15301927086212</v>
+      </c>
+    </row>
+    <row r="491" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C491" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="492" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D491">
+        <v>0.15293401489920599</v>
+      </c>
+    </row>
+    <row r="492" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C492" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="493" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D492">
+        <v>0.15280604229303599</v>
+      </c>
+    </row>
+    <row r="493" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C493" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="494" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D493">
+        <v>0.152625802027754</v>
+      </c>
+    </row>
+    <row r="494" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C494" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="495" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D494">
+        <v>0.15253770277266801</v>
+      </c>
+    </row>
+    <row r="495" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C495" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="496" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D495">
+        <v>0.15247241100102599</v>
+      </c>
+    </row>
+    <row r="496" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C496" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="497" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D496">
+        <v>0.15239242582919299</v>
+      </c>
+    </row>
+    <row r="497" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C497" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="498" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D497">
+        <v>0.151631163394505</v>
+      </c>
+    </row>
+    <row r="498" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C498" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="499" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D498">
+        <v>0.15121613445648599</v>
+      </c>
+    </row>
+    <row r="499" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C499" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="500" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D499">
+        <v>0.15115363706016199</v>
+      </c>
+    </row>
+    <row r="500" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C500" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="501" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D500">
+        <v>0.151080316809764</v>
+      </c>
+    </row>
+    <row r="501" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C501" t="s">
         <v>601</v>
+      </c>
+      <c r="D501">
+        <v>0.151065867993845</v>
       </c>
     </row>
   </sheetData>
